--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/CAR_CAT_CARRERAS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/CAR_CAT_CARRERAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>IDCARRERA</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>NOMBRECARRERA</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Ing en Sistemas Computacioneles</t>
   </si>
 </sst>
 </file>
@@ -402,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,17 +413,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/CAR_CAT_CARRERAS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/CAR_CAT_CARRERAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>IDCARRERA</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>NOMBRECARRERA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Ingenieria en sistemas computacionales</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +419,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
